--- a/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Julio.xlsx
+++ b/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Julio.xlsx
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B32" s="65">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="33">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B39" s="65">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B44" s="65">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="B68" s="65">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="B70" s="65">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B92" s="65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
